--- a/data/stage00.xlsx
+++ b/data/stage00.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A10\team\ver3\2d\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mio-o\source\2025\team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B334EDF-ABD7-4D81-A565-CB459E32C486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BDFA93-6298-46EA-A667-4105E751E642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{3A62CE32-F9E2-4BB5-A6E0-3401107551D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3A62CE32-F9E2-4BB5-A6E0-3401107551D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -414,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53114C3-7904-413D-829C-7BD97BD38F05}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>0</v>
       </c>
@@ -453,8 +451,14 @@
       <c r="J1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -485,8 +489,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -517,8 +527,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -549,10 +565,16 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -581,8 +603,14 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>0</v>
       </c>
@@ -611,6 +639,240 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>0</v>
       </c>
     </row>
